--- a/biology/Zoologie/Ituglanis_nebulosus/Ituglanis_nebulosus.xlsx
+++ b/biology/Zoologie/Ituglanis_nebulosus/Ituglanis_nebulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ituglanis nebulosus est une espèce de poissons d'eau douce de la famille des Trichomycteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ituglanis nebulosus est endémique de Guyane française[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ituglanis nebulosus est endémique de Guyane française.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ituglanis nebulosus peut mesurer jusqu'à 35 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ituglanis nebulosus peut mesurer jusqu'à 35 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ituglanis nebulosus de Pinna (d) &amp; Keith (d), 2003[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ituglanis nebulosus de Pinna (d) &amp; Keith (d), 2003,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin nebulosus, « nuageux, brumeux », fait référence à la coloration de ce poisson[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin nebulosus, « nuageux, brumeux », fait référence à la coloration de ce poisson.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Mário de Pinna et Philippe Keith, « A new species of the catfish genus Ituglanis from French Guyana (Osteichthyes: Siluriformes: Trichomycteridae) », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 116, no 4,‎ décembre 2003, p. 873-882 (ISSN 0006-324X et 1943-6327, OCLC 1536434, lire en ligne)</t>
         </is>
